--- a/sb/spec/fixtures/files/client_registration/ok.xlsx
+++ b/sb/spec/fixtures/files/client_registration/ok.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\develop\git\securebox\sb\spec\fixtures\files\client_registration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12D3A69E-779F-46E0-9036-B1D0C0DAA8B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59FD5CC6-FF7D-4E8B-9778-00C9907F8545}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5805" yWindow="210" windowWidth="32370" windowHeight="14355" xr2:uid="{E5C79BB5-B992-4330-8A02-0F2F0A061F4B}"/>
+    <workbookView xWindow="3345" yWindow="0" windowWidth="32370" windowHeight="14910" xr2:uid="{E5C79BB5-B992-4330-8A02-0F2F0A061F4B}"/>
   </bookViews>
   <sheets>
     <sheet name="クライアント登録情報" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="52">
   <si>
     <t>選択</t>
     <rPh sb="0" eb="2">
@@ -400,6 +400,10 @@
   </si>
   <si>
     <t>1234657890123</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>5010001089333</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -878,7 +882,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
+      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4016,6 +4020,9 @@
       </c>
     </row>
     <row r="5" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="G5" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="J5" s="5" t="s">
         <v>35</v>
       </c>
